--- a/regions/9/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/9/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -526,16 +527,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -552,7 +553,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -569,7 +570,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="7">
         <v>2006</v>
@@ -616,8 +617,14 @@
       <c r="P3" s="8">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -666,8 +673,14 @@
       <c r="P4" s="10">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="R4" s="10">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -716,8 +729,14 @@
       <c r="P5" s="10">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="R5" s="10">
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -766,8 +785,14 @@
       <c r="P6" s="16">
         <v>1503</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="16">
+        <v>1506</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -816,8 +841,14 @@
       <c r="P7" s="16">
         <v>1417</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="16">
+        <v>1337</v>
+      </c>
+      <c r="R7" s="16">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -866,8 +897,14 @@
       <c r="P8" s="10">
         <v>1205.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="10">
+        <v>1023.7</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1789.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -916,8 +953,14 @@
       <c r="P9" s="10">
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="R9" s="10">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1009,14 @@
       <c r="P10" s="10">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="R10" s="10">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="17" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1065,14 @@
       <c r="P11" s="10">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="10">
+        <v>38.1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1121,14 @@
       <c r="P12" s="10">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
@@ -1116,8 +1177,14 @@
       <c r="P13" s="11">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q13" s="11">
+        <v>69.2</v>
+      </c>
+      <c r="R13" s="11">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1134,7 +1201,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1149,42 +1216,42 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="12.75">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" s="19"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6">
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6">
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6">
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6">
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:6">
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:6">
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:6">
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:6">
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6">
       <c r="F29" s="19"/>
     </row>
   </sheetData>
